--- a/ArcadeMVD-STM v1.5/BOM MS-ArcadeMVD-STM 01-1.5/BOM (alternative parts) MS-ArcadeMVD-STM 01-1.5.xlsx
+++ b/ArcadeMVD-STM v1.5/BOM MS-ArcadeMVD-STM 01-1.5/BOM (alternative parts) MS-ArcadeMVD-STM 01-1.5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C43C28-AFA5-4027-8D41-3CFBB6D56B9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03B400D-5CF6-4E52-AA95-D2587E517259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21732" yWindow="2760" windowWidth="22140" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>27/08/2019</t>
+    <t>30/08/2019</t>
   </si>
   <si>
     <t>1000</t>
@@ -164,7 +164,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>15:14:09</t>
+    <t>15:25:57</t>
   </si>
   <si>
     <t>MakeCode Arcade reference design for STM32F4</t>
@@ -434,16 +434,16 @@
     <t>#Column Name Error:link</t>
   </si>
   <si>
-    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5\ArcadeMVD-STM 01-1.5.PrjPCB</t>
-  </si>
-  <si>
-    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5\ArcadeMVD-STM 01-1.5 alternative parts.SchDoc</t>
+    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5 RTM\ArcadeMVD-STM 01-1.5.PrjPCB</t>
+  </si>
+  <si>
+    <t>D:\shodges\TFS-MSR\SenDev\Projects\EduBoards - MS\ArcadeMVD\Altium\ArcadeMVD-STM v1.5 RTM\ArcadeMVD-STM 01-1.5 alternative parts.SchDoc</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>27/08/2019 15:14:09</t>
+    <t>30/08/2019 15:25:57</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="B8" s="14">
         <f ca="1">TODAY()</f>
-        <v>43704</v>
+        <v>43707</v>
       </c>
       <c r="C8" s="49">
         <f ca="1">NOW()</f>
-        <v>43704.63504108796</v>
+        <v>43707.64328611111</v>
       </c>
       <c r="D8"/>
       <c r="E8" s="11"/>
@@ -2273,7 +2273,7 @@
         <v>0.15</v>
       </c>
       <c r="P14" s="51">
-        <v>154.03</v>
+        <v>153.63</v>
       </c>
       <c r="Q14" s="122" t="s">
         <v>83</v>
@@ -2430,10 +2430,10 @@
         <v>88</v>
       </c>
       <c r="O16" s="51">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P16" s="51">
-        <v>1017.1</v>
+        <v>1014.42</v>
       </c>
       <c r="Q16" s="122" t="s">
         <v>83</v>
@@ -2750,10 +2750,10 @@
         <v>91</v>
       </c>
       <c r="O20" s="51">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="P20" s="51">
-        <v>3007.3</v>
+        <v>2999.36</v>
       </c>
       <c r="Q20" s="122" t="s">
         <v>96</v>
@@ -2839,7 +2839,7 @@
         <v>0.16</v>
       </c>
       <c r="P21" s="52">
-        <v>163.81</v>
+        <v>163.38</v>
       </c>
       <c r="Q21" s="123" t="s">
         <v>97</v>
@@ -3008,38 +3008,38 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N14" r:id="rId1" tooltip="Supplier" display="'1924371" xr:uid="{407E7D20-8634-4D3A-86F5-85A9BE96033F}"/>
-    <hyperlink ref="N15" tooltip="Supplier" display="'MCR-B-S-RA-SMT-CS5-T/R" xr:uid="{B24B4B46-3E18-4A8A-B349-B3B9F7B18BEE}"/>
-    <hyperlink ref="N16" r:id="rId2" tooltip="Supplier" display="'2914546" xr:uid="{D8728D19-3B67-4898-90D2-075ABF621B4D}"/>
-    <hyperlink ref="N17" r:id="rId3" tooltip="Supplier" display="'490-SJ2-3593D-SMT-TR" xr:uid="{2619CD1F-C64B-43B8-8406-112BBFD5CE11}"/>
-    <hyperlink ref="N18" tooltip="Supplier" display="'C132500" xr:uid="{956EBCA8-853D-442D-A5AE-CCD0B08021F7}"/>
-    <hyperlink ref="N19" tooltip="Supplier" display="'" xr:uid="{C7BA2BC8-E8A0-4E22-B85B-77DD94B1ADFB}"/>
-    <hyperlink ref="N20" r:id="rId4" tooltip="Supplier" display="'2432105" xr:uid="{65BBCCD3-46A7-4AB8-BB73-AF6EAB557B45}"/>
-    <hyperlink ref="N21" r:id="rId5" tooltip="Supplier" display="'2063972" xr:uid="{AECD75AB-1A44-4443-89FC-FF5899B75DDC}"/>
-    <hyperlink ref="R14" r:id="rId6" tooltip="Supplier" display="'833-MBRX120LF-TP" xr:uid="{68609C0F-DBD3-408D-AB29-CF6AE2829D58}"/>
-    <hyperlink ref="R15" tooltip="Supplier" display="'" xr:uid="{D2666026-B415-4FC0-9814-829C8625369D}"/>
-    <hyperlink ref="R16" r:id="rId7" tooltip="Supplier" display="'502-35RASMT4BHNTRX" xr:uid="{B05C8746-80D2-4957-ACC9-6ED51DA93C49}"/>
-    <hyperlink ref="R17" r:id="rId8" tooltip="Supplier" display="'CP-SJ2-3593D-SMT-CT-ND" xr:uid="{5ADCBFD5-CEC5-4481-AC58-23666B0FFC51}"/>
-    <hyperlink ref="R18" tooltip="Supplier" display="'" xr:uid="{BE69B84E-E742-498C-9B46-0D7BA55FD19D}"/>
-    <hyperlink ref="R19" tooltip="Supplier" display="'" xr:uid="{3C69A614-3877-40AB-A618-3A257014E69B}"/>
-    <hyperlink ref="R20" r:id="rId9" tooltip="Supplier" display="'497-17427-ND" xr:uid="{DDA56DA7-D7E3-4910-A4C0-8484989853C0}"/>
-    <hyperlink ref="R21" r:id="rId10" tooltip="Supplier" display="'5476452" xr:uid="{EB056F8F-D474-402B-9987-8FF108F0B611}"/>
-    <hyperlink ref="V14" r:id="rId11" tooltip="Supplier" display="'MBRX120LF-TPMSCT-ND" xr:uid="{DB32C41A-3C89-4120-8AF3-41D78A4864BE}"/>
-    <hyperlink ref="V15" tooltip="Supplier" display="'" xr:uid="{DFE3EA81-6171-4486-BA87-55D546E8BB12}"/>
-    <hyperlink ref="V16" r:id="rId12" tooltip="Supplier" display="'7051490" xr:uid="{23AB20BA-F700-4143-9C32-10751E91DC7D}"/>
-    <hyperlink ref="V17" tooltip="Supplier" display="'" xr:uid="{410D30B5-7386-4FE9-B2AA-95877EE07E02}"/>
-    <hyperlink ref="V18" tooltip="Supplier" display="'" xr:uid="{EB712F0D-05C2-4642-AF74-1E22B90C5D1A}"/>
-    <hyperlink ref="V19" tooltip="Supplier" display="'" xr:uid="{5A348A82-0596-4F7E-9307-5EAE6F5CEBD2}"/>
-    <hyperlink ref="V20" r:id="rId13" tooltip="Supplier" display="'511-STM32F401CEU6" xr:uid="{B55609D1-0ED8-455A-88B9-D3E6ED828E62}"/>
-    <hyperlink ref="V21" r:id="rId14" tooltip="Supplier" display="'559-FOXSD080-20-LF" xr:uid="{C9A883DF-2375-4258-8847-0097F5E8590E}"/>
-    <hyperlink ref="Z14" tooltip="Supplier" display="'" xr:uid="{726A796D-87ED-484B-B04E-84B0BE2C34A2}"/>
-    <hyperlink ref="Z15" tooltip="Supplier" display="'" xr:uid="{FC1E6BE6-76F9-4DFA-B303-6FB63977F6F7}"/>
-    <hyperlink ref="Z16" r:id="rId15" tooltip="Supplier" display="'SC1488-1-ND" xr:uid="{90BB8E8E-422B-4138-B98C-256C82F64DCD}"/>
-    <hyperlink ref="Z17" tooltip="Supplier" display="'" xr:uid="{ADFFB191-2332-4434-9EE9-D1114D0FDCB5}"/>
-    <hyperlink ref="Z18" tooltip="Supplier" display="'" xr:uid="{6468DFBA-4E6B-4B56-B2BC-A08CD1800DD4}"/>
-    <hyperlink ref="Z19" tooltip="Supplier" display="'" xr:uid="{0F65B96C-2F9A-48E3-9BF4-79C5EC0DF9D6}"/>
-    <hyperlink ref="Z20" tooltip="Supplier" display="'" xr:uid="{2592653D-D0BE-435E-BD4B-C52ACD0C728B}"/>
-    <hyperlink ref="Z21" r:id="rId16" tooltip="Supplier" display="'631-1010-1-ND" xr:uid="{3CFC4170-907B-48FC-B027-B9A6D9EA3EDA}"/>
+    <hyperlink ref="N14" r:id="rId1" tooltip="Supplier" display="'1924371" xr:uid="{1E986F6A-F5CA-49CC-9EC3-979916C9D8A9}"/>
+    <hyperlink ref="N15" tooltip="Supplier" display="'MCR-B-S-RA-SMT-CS5-T/R" xr:uid="{CCE0400A-26AF-4772-A952-4E41743B1A31}"/>
+    <hyperlink ref="N16" r:id="rId2" tooltip="Supplier" display="'2914546" xr:uid="{D756DDF5-2F30-4514-BF6B-96BB3CDDE817}"/>
+    <hyperlink ref="N17" r:id="rId3" tooltip="Supplier" display="'490-SJ2-3593D-SMT-TR" xr:uid="{F4092DA9-9BFD-4AD9-B9EC-687555A475BE}"/>
+    <hyperlink ref="N18" tooltip="Supplier" display="'C132500" xr:uid="{FD8DBA4B-FE57-4CF5-B554-D6CE6613C068}"/>
+    <hyperlink ref="N19" tooltip="Supplier" display="'" xr:uid="{776BD2CD-70B7-47A8-828B-5E30B0995D5A}"/>
+    <hyperlink ref="N20" r:id="rId4" tooltip="Supplier" display="'2432105" xr:uid="{47E33C53-32BD-4D0C-9F04-291369DA4151}"/>
+    <hyperlink ref="N21" r:id="rId5" tooltip="Supplier" display="'2063972" xr:uid="{A300E6B3-23B0-41E7-B9B5-F36A893E68D7}"/>
+    <hyperlink ref="R14" r:id="rId6" tooltip="Supplier" display="'833-MBRX120LF-TP" xr:uid="{81C13FF0-60F2-40EB-9D3B-F581FB957E70}"/>
+    <hyperlink ref="R15" tooltip="Supplier" display="'" xr:uid="{615A24D3-8B44-4578-84E4-3A57B4A3943D}"/>
+    <hyperlink ref="R16" r:id="rId7" tooltip="Supplier" display="'502-35RASMT4BHNTRX" xr:uid="{42098C9E-E9F2-4505-970C-EC8CC5837E1B}"/>
+    <hyperlink ref="R17" r:id="rId8" tooltip="Supplier" display="'CP-SJ2-3593D-SMT-CT-ND" xr:uid="{0D3E6D4D-71DE-4172-BC29-4D68BBB28E1E}"/>
+    <hyperlink ref="R18" tooltip="Supplier" display="'" xr:uid="{4649FECA-65BF-4A0A-A9EB-17EA9B0675F2}"/>
+    <hyperlink ref="R19" tooltip="Supplier" display="'" xr:uid="{79FAEE58-8356-4ADF-B575-86D321FEFFD7}"/>
+    <hyperlink ref="R20" r:id="rId9" tooltip="Supplier" display="'497-17427-ND" xr:uid="{9CFB3F3D-88D7-4D5D-ADF1-357B9667257B}"/>
+    <hyperlink ref="R21" r:id="rId10" tooltip="Supplier" display="'5476452" xr:uid="{5BDC59C0-BFC8-4703-A091-114F7431A491}"/>
+    <hyperlink ref="V14" r:id="rId11" tooltip="Supplier" display="'MBRX120LF-TPMSCT-ND" xr:uid="{89A8DB45-35CD-438D-B546-28EEBC9B8EAE}"/>
+    <hyperlink ref="V15" tooltip="Supplier" display="'" xr:uid="{C35C8C7B-594A-4F1A-83F4-23740CFEEAB7}"/>
+    <hyperlink ref="V16" r:id="rId12" tooltip="Supplier" display="'7051490" xr:uid="{1C254DE4-795C-4D04-8D35-19CD0AC419D9}"/>
+    <hyperlink ref="V17" tooltip="Supplier" display="'" xr:uid="{A3142894-0779-4225-9996-2C9B07B09858}"/>
+    <hyperlink ref="V18" tooltip="Supplier" display="'" xr:uid="{454590C7-4F92-4DA1-BE53-5D2E9B623376}"/>
+    <hyperlink ref="V19" tooltip="Supplier" display="'" xr:uid="{29AA4C19-7450-4F99-A13B-02CBA32EBE41}"/>
+    <hyperlink ref="V20" r:id="rId13" tooltip="Supplier" display="'511-STM32F401CEU6" xr:uid="{23E5C2B6-64B2-4E8B-A239-621A777CFCE5}"/>
+    <hyperlink ref="V21" r:id="rId14" tooltip="Supplier" display="'559-FOXSD080-20-LF" xr:uid="{5C037C85-B390-4A5E-9C43-FC87DB05CB79}"/>
+    <hyperlink ref="Z14" tooltip="Supplier" display="'" xr:uid="{FB56AD37-EDE9-40B5-98B4-2B1865510EB0}"/>
+    <hyperlink ref="Z15" tooltip="Supplier" display="'" xr:uid="{42178B31-46AB-4D61-B47A-2AC90F466A60}"/>
+    <hyperlink ref="Z16" r:id="rId15" tooltip="Supplier" display="'SC1488-1-ND" xr:uid="{3EEC46C2-9DD1-4095-90E1-2A4F5CBBF385}"/>
+    <hyperlink ref="Z17" tooltip="Supplier" display="'" xr:uid="{1646E947-8BC0-4DD6-93F9-0F8E002D12DB}"/>
+    <hyperlink ref="Z18" tooltip="Supplier" display="'" xr:uid="{FE0EB1CF-8687-4082-927C-1384ADAA0ED9}"/>
+    <hyperlink ref="Z19" tooltip="Supplier" display="'" xr:uid="{424ACDB6-973F-4EF2-9C6E-E76F137A32E9}"/>
+    <hyperlink ref="Z20" tooltip="Supplier" display="'" xr:uid="{1CD43F1F-7069-480A-B9EA-F3DF597875FF}"/>
+    <hyperlink ref="Z21" r:id="rId16" tooltip="Supplier" display="'631-1010-1-ND" xr:uid="{64E05D14-E0D9-4726-8165-30C4C9262151}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0" header="0.11811023622047245" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
